--- a/Stored Procedure/봉사자/Stored Procedure Develope List (Publisher).xlsx
+++ b/Stored Procedure/봉사자/Stored Procedure Develope List (Publisher).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\StandingService\Stored Procedure\봉사자\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\StandingService\Stored Procedure\봉사자\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62258F8-DAE0-45F8-90E2-1E997F5B9558}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF286A04-43DB-411F-A6E6-85F517E3B218}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="1965" windowWidth="22830" windowHeight="14175" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
+    <workbookView xWindow="-4335" yWindow="2970" windowWidth="26370" windowHeight="14700" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
   </bookViews>
   <sheets>
     <sheet name="타임인도자" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,30 +154,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uspSetPublisherPasswordUpdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전화번호변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uspSetPublisherMobileUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회중변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uspSetPublisherCongregationUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>언어변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +215,27 @@
   </si>
   <si>
     <t>uspSetPublisherPasswordReset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspGetPublisherLogInMobileConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호초기화정보 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인
+설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspSetPublisherUpdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,12 +285,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -362,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,47 +387,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,11 +764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DEACEA-A04D-4342-8F20-1301D9B36B6E}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11:B13"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -763,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -778,287 +802,281 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="22">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>8</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B8" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="2" t="s">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>9</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="E11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>48</v>
+      <c r="E12" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="9"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>50</v>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7">
-        <v>4</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>15</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>3</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>18</v>
-      </c>
-      <c r="B16" s="7">
-        <v>5</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>14</v>
+      <c r="A16" s="3"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>15</v>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7">
-        <v>6</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10">
         <v>4</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>33</v>
+      <c r="C18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>37</v>
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>5</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>39</v>
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -1069,14 +1087,14 @@
       <c r="B22" s="3">
         <v>8</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>42</v>
+      <c r="C22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -1087,33 +1105,47 @@
       <c r="B23" s="3">
         <v>9</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>46</v>
+      <c r="E23" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F23" s="2"/>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="12">
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B8:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
